--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -50,7 +50,7 @@
     <t>isik-herzfrequenz</t>
   </si>
   <si>
-    <t>UTN Observation Herzfrequenz Profile</t>
+    <t>UTN Observation Heart rate Profile</t>
   </si>
   <si>
     <t>Observation Category Codes#vital-signs</t>
@@ -89,7 +89,7 @@
     <t>isik-koerpertemperatur</t>
   </si>
   <si>
-    <t>UTN Observation Koerper Temperatur Profile</t>
+    <t>UTN Observation Koerpertemperatur Profile</t>
   </si>
   <si>
     <t>null#8310-5, null#null, null#150364</t>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -122,7 +122,7 @@
     <t>UTN Observation Atemfrequenz Profile</t>
   </si>
   <si>
-    <t>LOINC#9279-1, LOINC#null, SNOMED CT#86290005, ISO 11073-10101 Health informatics - Point-of-care#151562</t>
+    <t>LOINC#9279-1, LOINC#null, SNOMED CT#86290005, ISO/IEEE 11073 Medical Device Communication Nomenclature#151562</t>
   </si>
   <si>
     <t>utn-observation-arterieller-blutdruck</t>
@@ -140,13 +140,13 @@
     <t>prohibited</t>
   </si>
   <si>
-    <t>LOINC#8480-6, LOINC#8480-6, SNOMED CT#271649006, ISO 11073-10101 Health informatics - Point-of-care#150017</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4, LOINC#8462-4, SNOMED CT#271650006, ISO 11073-10101 Health informatics - Point-of-care#150018</t>
-  </si>
-  <si>
-    <t>LOINC#8478-0, LOINC#8478-0, SNOMED CT#6797001, ISO 11073-10101 Health informatics - Point-of-care#150019</t>
+    <t>LOINC#8480-6, LOINC#8480-6, SNOMED CT#271649006, ISO/IEEE 11073 Medical Device Communication Nomenclature#150017</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4, LOINC#8462-4, SNOMED CT#271650006, ISO/IEEE 11073 Medical Device Communication Nomenclature#150018</t>
+  </si>
+  <si>
+    <t>LOINC#8478-0, LOINC#8478-0, SNOMED CT#6797001, ISO/IEEE 11073 Medical Device Communication Nomenclature#150019</t>
   </si>
 </sst>
 </file>
